--- a/prep/CW/cw_chemical_trend_mse2019.xlsx
+++ b/prep/CW/cw_chemical_trend_mse2019.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21929"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\CARPETA COMPARTIDA\PROYECTOS\CI IdSO MANABÍ Y SANTA ELENA\CAPAS DE DATOS\DATOS CRUDOS\AGUAS LIMPIAS\CAPAS DE DATOS AGUAS LIMPIAS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\karla\Documents\Github\mse\prep\CW\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E74AA31-1922-44C2-9804-03958E1DAA48}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="19590" windowHeight="11760"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="19770" windowHeight="11760" firstSheet="2" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="cw_chemicaltrendgl" sheetId="1" r:id="rId1"/>
@@ -36,7 +37,7 @@
     <externalReference r:id="rId20"/>
     <externalReference r:id="rId21"/>
   </externalReferences>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -44,7 +45,9 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -171,7 +174,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0000"/>
   </numFmts>
@@ -560,7 +563,7 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="es-ES"/>
   <c:roundedCorners val="0"/>
@@ -869,7 +872,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-F7ED-4A37-BAC5-C16C02010960}"/>
             </c:ext>
@@ -1018,7 +1021,6 @@
         <c:idx val="1"/>
         <c:delete val="1"/>
       </c:legendEntry>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1096,7 +1098,7 @@
 </file>
 
 <file path=xl/charts/chart10.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="es-ES"/>
   <c:roundedCorners val="0"/>
@@ -1135,7 +1137,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1309,7 +1310,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-59E5-46CB-A34B-B5471CCD8A43}"/>
             </c:ext>
@@ -1460,14 +1461,14 @@
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+    <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
           <c16r3:dispNaAsBlank val="1"/>
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -1503,7 +1504,7 @@
 </file>
 
 <file path=xl/charts/chart11.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="es-ES"/>
   <c:roundedCorners val="0"/>
@@ -1547,7 +1548,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1636,7 +1636,6 @@
             <c:dispRSqr val="0"/>
             <c:dispEq val="1"/>
             <c:trendlineLbl>
-              <c:layout/>
               <c:numFmt formatCode="General" sourceLinked="0"/>
               <c:spPr>
                 <a:noFill/>
@@ -1716,7 +1715,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-AD90-4B7E-ACF5-B3B00FE32F1C}"/>
             </c:ext>
@@ -1867,14 +1866,14 @@
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+    <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
           <c16r3:dispNaAsBlank val="1"/>
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -1910,7 +1909,7 @@
 </file>
 
 <file path=xl/charts/chart12.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="es-ES"/>
   <c:roundedCorners val="0"/>
@@ -1949,7 +1948,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2038,7 +2036,6 @@
             <c:dispRSqr val="0"/>
             <c:dispEq val="1"/>
             <c:trendlineLbl>
-              <c:layout/>
               <c:numFmt formatCode="General" sourceLinked="0"/>
               <c:spPr>
                 <a:noFill/>
@@ -2118,7 +2115,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-F7AD-4105-B390-36235B0D1191}"/>
             </c:ext>
@@ -2269,14 +2266,14 @@
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+    <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
           <c16r3:dispNaAsBlank val="1"/>
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -2312,7 +2309,7 @@
 </file>
 
 <file path=xl/charts/chart13.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="es-ES"/>
   <c:roundedCorners val="0"/>
@@ -2355,7 +2352,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2444,7 +2440,6 @@
             <c:dispRSqr val="0"/>
             <c:dispEq val="1"/>
             <c:trendlineLbl>
-              <c:layout/>
               <c:numFmt formatCode="General" sourceLinked="0"/>
               <c:spPr>
                 <a:noFill/>
@@ -2524,7 +2519,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-5E0C-4E4B-A844-4C83BD80A08E}"/>
             </c:ext>
@@ -2675,14 +2670,14 @@
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+    <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
           <c16r3:dispNaAsBlank val="1"/>
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -2718,7 +2713,7 @@
 </file>
 
 <file path=xl/charts/chart14.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="es-ES"/>
   <c:roundedCorners val="0"/>
@@ -2757,7 +2752,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2846,7 +2840,6 @@
             <c:dispRSqr val="0"/>
             <c:dispEq val="1"/>
             <c:trendlineLbl>
-              <c:layout/>
               <c:numFmt formatCode="General" sourceLinked="0"/>
               <c:spPr>
                 <a:noFill/>
@@ -2926,7 +2919,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-B70A-47BC-BF21-D5CDB83C31D9}"/>
             </c:ext>
@@ -3077,14 +3070,14 @@
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+    <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
           <c16r3:dispNaAsBlank val="1"/>
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -3120,7 +3113,7 @@
 </file>
 
 <file path=xl/charts/chart15.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="es-ES"/>
   <c:roundedCorners val="0"/>
@@ -3159,7 +3152,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3248,7 +3240,6 @@
             <c:dispRSqr val="0"/>
             <c:dispEq val="1"/>
             <c:trendlineLbl>
-              <c:layout/>
               <c:numFmt formatCode="General" sourceLinked="0"/>
               <c:spPr>
                 <a:noFill/>
@@ -3328,7 +3319,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-ECE8-433E-A6A4-5C1F36F14E5D}"/>
             </c:ext>
@@ -3479,14 +3470,14 @@
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+    <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
           <c16r3:dispNaAsBlank val="1"/>
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -3522,7 +3513,7 @@
 </file>
 
 <file path=xl/charts/chart16.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="es-ES"/>
   <c:roundedCorners val="0"/>
@@ -3561,7 +3552,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3735,7 +3725,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-2D22-48A8-ABD5-84DFF0419E78}"/>
             </c:ext>
@@ -3886,14 +3876,14 @@
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+    <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
           <c16r3:dispNaAsBlank val="1"/>
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -3929,7 +3919,7 @@
 </file>
 
 <file path=xl/charts/chart17.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="es-ES"/>
   <c:roundedCorners val="0"/>
@@ -3968,7 +3958,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -4142,7 +4131,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-C585-491D-8286-CDFFBAE55004}"/>
             </c:ext>
@@ -4293,14 +4282,14 @@
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+    <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
           <c16r3:dispNaAsBlank val="1"/>
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -4336,7 +4325,7 @@
 </file>
 
 <file path=xl/charts/chart18.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="es-ES"/>
   <c:roundedCorners val="0"/>
@@ -4380,7 +4369,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -4554,7 +4542,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-B2D6-4C27-ADE2-AD8E4EF81175}"/>
             </c:ext>
@@ -4705,14 +4693,14 @@
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+    <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
           <c16r3:dispNaAsBlank val="1"/>
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -4748,7 +4736,7 @@
 </file>
 
 <file path=xl/charts/chart19.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="es-ES"/>
   <c:roundedCorners val="0"/>
@@ -4787,7 +4775,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -4961,7 +4948,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-CD52-4A5B-8819-4B068645AD5B}"/>
             </c:ext>
@@ -5112,14 +5099,14 @@
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+    <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
           <c16r3:dispNaAsBlank val="1"/>
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -5155,7 +5142,7 @@
 </file>
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="es-ES"/>
   <c:roundedCorners val="0"/>
@@ -5199,7 +5186,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -5387,7 +5373,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-0F48-49A5-ADA7-5C94815EB1C9}"/>
             </c:ext>
@@ -5538,14 +5524,14 @@
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+    <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
           <c16r3:dispNaAsBlank val="1"/>
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -5581,7 +5567,7 @@
 </file>
 
 <file path=xl/charts/chart20.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="es-ES"/>
   <c:roundedCorners val="0"/>
@@ -5625,7 +5611,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -5714,7 +5699,6 @@
             <c:dispRSqr val="0"/>
             <c:dispEq val="1"/>
             <c:trendlineLbl>
-              <c:layout/>
               <c:numFmt formatCode="General" sourceLinked="0"/>
               <c:spPr>
                 <a:noFill/>
@@ -5794,7 +5778,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-9457-4F56-9175-7D371E046AA9}"/>
             </c:ext>
@@ -5945,14 +5929,14 @@
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+    <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
           <c16r3:dispNaAsBlank val="1"/>
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -5988,7 +5972,7 @@
 </file>
 
 <file path=xl/charts/chart21.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="es-ES"/>
   <c:roundedCorners val="0"/>
@@ -6027,7 +6011,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -6116,7 +6099,6 @@
             <c:dispRSqr val="0"/>
             <c:dispEq val="1"/>
             <c:trendlineLbl>
-              <c:layout/>
               <c:numFmt formatCode="General" sourceLinked="0"/>
               <c:spPr>
                 <a:noFill/>
@@ -6196,7 +6178,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-CA3D-4A86-9C49-76658A6F5870}"/>
             </c:ext>
@@ -6347,14 +6329,14 @@
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+    <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
           <c16r3:dispNaAsBlank val="1"/>
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -6390,7 +6372,7 @@
 </file>
 
 <file path=xl/charts/chart22.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="es-ES"/>
   <c:roundedCorners val="0"/>
@@ -6437,7 +6419,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -6611,7 +6592,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-C19C-4F02-98C8-458D6047B13D}"/>
             </c:ext>
@@ -6762,14 +6743,14 @@
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+    <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
           <c16r3:dispNaAsBlank val="1"/>
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -6805,7 +6786,7 @@
 </file>
 
 <file path=xl/charts/chart23.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="es-ES"/>
   <c:roundedCorners val="0"/>
@@ -6844,7 +6825,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -6933,7 +6913,6 @@
             <c:dispRSqr val="0"/>
             <c:dispEq val="1"/>
             <c:trendlineLbl>
-              <c:layout/>
               <c:numFmt formatCode="General" sourceLinked="0"/>
               <c:spPr>
                 <a:noFill/>
@@ -7013,7 +6992,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-4030-4018-BD2A-F4F3C3F039B0}"/>
             </c:ext>
@@ -7164,14 +7143,14 @@
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+    <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
           <c16r3:dispNaAsBlank val="1"/>
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -7207,7 +7186,7 @@
 </file>
 
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="es-ES"/>
   <c:roundedCorners val="0"/>
@@ -7246,7 +7225,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -7420,7 +7398,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-1A1C-47D4-B8CE-606F02F69F8B}"/>
             </c:ext>
@@ -7571,14 +7549,14 @@
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+    <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
           <c16r3:dispNaAsBlank val="1"/>
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -7614,7 +7592,7 @@
 </file>
 
 <file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="es-ES"/>
   <c:roundedCorners val="0"/>
@@ -7658,7 +7636,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -7832,7 +7809,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-A18E-486F-8879-961EEE9BBFF0}"/>
             </c:ext>
@@ -7983,14 +7960,14 @@
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+    <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
           <c16r3:dispNaAsBlank val="1"/>
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -8026,7 +8003,7 @@
 </file>
 
 <file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="es-ES"/>
   <c:roundedCorners val="0"/>
@@ -8069,7 +8046,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -8243,7 +8219,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-E664-4760-91FB-E5E0BE628532}"/>
             </c:ext>
@@ -8394,14 +8370,14 @@
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+    <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
           <c16r3:dispNaAsBlank val="1"/>
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -8437,7 +8413,7 @@
 </file>
 
 <file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="es-ES"/>
   <c:roundedCorners val="0"/>
@@ -8476,7 +8452,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -8650,7 +8625,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-F6FA-4495-BBB3-09187455214E}"/>
             </c:ext>
@@ -8801,14 +8776,14 @@
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+    <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
           <c16r3:dispNaAsBlank val="1"/>
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -8844,7 +8819,7 @@
 </file>
 
 <file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="es-ES"/>
   <c:roundedCorners val="0"/>
@@ -8888,7 +8863,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -9062,7 +9036,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-1507-4726-97EA-86F2D008CA52}"/>
             </c:ext>
@@ -9213,14 +9187,14 @@
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+    <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
           <c16r3:dispNaAsBlank val="1"/>
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -9256,7 +9230,7 @@
 </file>
 
 <file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="es-ES"/>
   <c:roundedCorners val="0"/>
@@ -9295,7 +9269,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -9384,7 +9357,6 @@
             <c:dispRSqr val="0"/>
             <c:dispEq val="1"/>
             <c:trendlineLbl>
-              <c:layout/>
               <c:numFmt formatCode="General" sourceLinked="0"/>
               <c:spPr>
                 <a:noFill/>
@@ -9464,7 +9436,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-281C-4D7B-8CC9-57037ABFAFC3}"/>
             </c:ext>
@@ -9615,14 +9587,14 @@
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+    <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
           <c16r3:dispNaAsBlank val="1"/>
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -9658,7 +9630,7 @@
 </file>
 
 <file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="es-ES"/>
   <c:roundedCorners val="0"/>
@@ -9702,7 +9674,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -9791,7 +9762,6 @@
             <c:dispRSqr val="0"/>
             <c:dispEq val="1"/>
             <c:trendlineLbl>
-              <c:layout/>
               <c:numFmt formatCode="General" sourceLinked="0"/>
               <c:spPr>
                 <a:noFill/>
@@ -9871,7 +9841,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-5C96-457D-9B1A-08056522C493}"/>
             </c:ext>
@@ -10022,14 +9992,14 @@
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+    <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
           <c16r3:dispNaAsBlank val="1"/>
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -22858,7 +22828,7 @@
         <xdr:cNvPr id="2" name="Gráfico 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -22901,7 +22871,7 @@
         <xdr:cNvPr id="2" name="Gráfico 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{96317D2F-5774-430E-98D0-3BC37673F40C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{96317D2F-5774-430E-98D0-3BC37673F40C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -22937,7 +22907,7 @@
         <xdr:cNvPr id="6" name="Gráfico 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{BFFF6953-C93E-4EFF-AE87-EDAA8E0C4708}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BFFF6953-C93E-4EFF-AE87-EDAA8E0C4708}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -22973,7 +22943,7 @@
         <xdr:cNvPr id="7" name="Gráfico 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5F4C057F-D25A-4DF5-B703-DD3239E3BC09}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5F4C057F-D25A-4DF5-B703-DD3239E3BC09}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -23009,7 +22979,7 @@
         <xdr:cNvPr id="8" name="Gráfico 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{AFE3DEDC-8A24-49ED-AA55-9306EF252CA0}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AFE3DEDC-8A24-49ED-AA55-9306EF252CA0}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -23045,7 +23015,7 @@
         <xdr:cNvPr id="9" name="Gráfico 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{23F2E60C-1D36-4B88-846E-666DD1C7714E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{23F2E60C-1D36-4B88-846E-666DD1C7714E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -23081,7 +23051,7 @@
         <xdr:cNvPr id="11" name="Gráfico 10">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{AF4F9D4D-6FD8-4161-8C68-A94230682F17}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AF4F9D4D-6FD8-4161-8C68-A94230682F17}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -23119,7 +23089,7 @@
         <xdr:cNvPr id="13" name="Gráfico 12">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FA9A9C13-7BC3-4A59-9A5E-635BDC5E0115}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FA9A9C13-7BC3-4A59-9A5E-635BDC5E0115}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -23157,7 +23127,7 @@
         <xdr:cNvPr id="15" name="Gráfico 14">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{76E857A1-2E61-40CB-B81F-EADAFEE2FD10}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{76E857A1-2E61-40CB-B81F-EADAFEE2FD10}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -23195,7 +23165,7 @@
         <xdr:cNvPr id="16" name="Gráfico 15">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D851BFF8-D97B-4B9B-B38C-879391E82ED8}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D851BFF8-D97B-4B9B-B38C-879391E82ED8}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -23231,7 +23201,7 @@
         <xdr:cNvPr id="18" name="Gráfico 17">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F8E4125F-7EF5-4587-B788-954668703F39}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F8E4125F-7EF5-4587-B788-954668703F39}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -23269,7 +23239,7 @@
         <xdr:cNvPr id="20" name="Gráfico 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5AF3AB1B-49D8-47A4-900A-C7F0AC85DE10}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5AF3AB1B-49D8-47A4-900A-C7F0AC85DE10}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -23307,7 +23277,7 @@
         <xdr:cNvPr id="22" name="Gráfico 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00E2C8E7-51E7-4F69-A83D-E7B76EAFF5FD}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00E2C8E7-51E7-4F69-A83D-E7B76EAFF5FD}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -23345,7 +23315,7 @@
         <xdr:cNvPr id="24" name="Gráfico 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{779C7E35-00BF-4463-9296-B1E7E96E0923}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{779C7E35-00BF-4463-9296-B1E7E96E0923}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -23383,7 +23353,7 @@
         <xdr:cNvPr id="26" name="Gráfico 25">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{01D47E61-6DA5-4477-884C-B49EA593352D}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{01D47E61-6DA5-4477-884C-B49EA593352D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -23421,7 +23391,7 @@
         <xdr:cNvPr id="28" name="Gráfico 27">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{1656BC36-A5BE-4C0D-8BC9-BA0126DF7F09}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1656BC36-A5BE-4C0D-8BC9-BA0126DF7F09}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -23459,7 +23429,7 @@
         <xdr:cNvPr id="30" name="Gráfico 29">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A6277007-670A-47D3-84DE-1C93390B242A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A6277007-670A-47D3-84DE-1C93390B242A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -23497,7 +23467,7 @@
         <xdr:cNvPr id="32" name="Gráfico 31">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5D7D6B48-E601-402C-A97F-C15AE9F7A4DF}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5D7D6B48-E601-402C-A97F-C15AE9F7A4DF}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -23535,7 +23505,7 @@
         <xdr:cNvPr id="34" name="Gráfico 33">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D0B1DAC8-755A-419A-9AF8-51F7E67F08A2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D0B1DAC8-755A-419A-9AF8-51F7E67F08A2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -23573,7 +23543,7 @@
         <xdr:cNvPr id="36" name="Gráfico 35">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{80C05F7F-1569-42DF-8C2C-122C38D9A142}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{80C05F7F-1569-42DF-8C2C-122C38D9A142}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -23611,7 +23581,7 @@
         <xdr:cNvPr id="38" name="Gráfico 37">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F66C0F1C-2F2A-4C8D-A1AE-838FB6F97A66}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F66C0F1C-2F2A-4C8D-A1AE-838FB6F97A66}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -23649,7 +23619,7 @@
         <xdr:cNvPr id="40" name="Gráfico 39">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{14A4DE04-1A71-47D4-8109-A173C12FEB8D}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{14A4DE04-1A71-47D4-8109-A173C12FEB8D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -23687,7 +23657,7 @@
         <xdr:cNvPr id="42" name="Gráfico 41">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{59CDAE6C-09D4-41AB-B2DE-C868CF5B8A78}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{59CDAE6C-09D4-41AB-B2DE-C868CF5B8A78}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -28052,10 +28022,10 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F30" sqref="F30"/>
     </sheetView>
   </sheetViews>
@@ -28295,7 +28265,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:K130"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -30732,7 +30702,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:M130"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -33497,7 +33467,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:K23"/>
   <sheetViews>
     <sheetView topLeftCell="A4" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
@@ -34184,11 +34154,11 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:C23"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="C24" sqref="C24"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -34260,8 +34230,7 @@
         <v>2010</v>
       </c>
       <c r="C6" s="50">
-        <f>'cw_chemical_trend MSE'!$K$16</f>
-        <v>1.0737261535122247</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
@@ -34332,8 +34301,7 @@
         <v>2016</v>
       </c>
       <c r="C12" s="50">
-        <f>'cw_chemical_trend MSE'!$K$22</f>
-        <v>2.4888067944543577</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
@@ -34392,8 +34360,7 @@
         <v>2010</v>
       </c>
       <c r="C17" s="50">
-        <f>'cw_chemical_trend MSE'!J16</f>
-        <v>1.6524265519451207</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
@@ -34428,8 +34395,7 @@
         <v>2013</v>
       </c>
       <c r="C20" s="50">
-        <f>'cw_chemical_trend MSE'!J19</f>
-        <v>-1.151618436746678</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
@@ -34452,8 +34418,7 @@
         <v>2015</v>
       </c>
       <c r="C22" s="50">
-        <f>'cw_chemical_trend MSE'!J21</f>
-        <v>1.6980053561367912</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
@@ -34464,8 +34429,7 @@
         <v>2016</v>
       </c>
       <c r="C23" s="50">
-        <f>'cw_chemical_trend MSE'!J22</f>
-        <v>4.5795187265878123</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/prep/CW/cw_chemical_trend_mse2019.xlsx
+++ b/prep/CW/cw_chemical_trend_mse2019.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\Hurtadoyhurtado\carpeta compartida\PROYECTOS\CI IdSO MANABÍ Y SANTA ELENA\CAPAS DE DATOS\DATOS CRUDOS\05 AGUAS LIMPIAS\AGUAS LIMPIAS 2019\DATOS CRUDOS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\github\mse\prep\CW\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21600" windowHeight="9630" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21600" windowHeight="9630" firstSheet="2" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="FAO PESTICIDAS" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="64">
   <si>
     <t>AÑO</t>
   </si>
@@ -64,9 +64,6 @@
   </si>
   <si>
     <t>[1] FAOSTAT (2019) http://www.fao.org/faostat/en/#data/EP</t>
-  </si>
-  <si>
-    <t>PESTICIDAS (kg/ha) [1]</t>
   </si>
   <si>
     <t>Uso de Pesticidas Manabí (ton)</t>
@@ -233,6 +230,30 @@
   <si>
     <t>PIÑA (FRUTA FRESCA)</t>
   </si>
+  <si>
+    <t>Pesticidas (kg/ha)</t>
+  </si>
+  <si>
+    <t>MANABÍ</t>
+  </si>
+  <si>
+    <t>SANTA ELENA</t>
+  </si>
+  <si>
+    <t>PROMEDIO</t>
+  </si>
+  <si>
+    <t>MÍNIMO</t>
+  </si>
+  <si>
+    <t>MÁXIMO</t>
+  </si>
+  <si>
+    <t>PROPORCIÓN</t>
+  </si>
+  <si>
+    <t>PROMEDIO ANUAL</t>
+  </si>
 </sst>
 </file>
 
@@ -241,7 +262,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="14" x14ac:knownFonts="1">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -338,6 +359,13 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="6">
     <fill>
@@ -371,7 +399,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -407,12 +435,26 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -487,10 +529,20 @@
     <xf numFmtId="49" fontId="11" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="4" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="0" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="1"/>
+    <cellStyle name="Porcentaje" xfId="2" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -576,8 +628,8 @@
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
-      <c:scatterChart>
-        <c:scatterStyle val="smoothMarker"/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
@@ -588,7 +640,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>PESTICIDAS (kg/ha) [1]</c:v>
+                  <c:v>Pesticidas (kg/ha)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -664,43 +716,10 @@
               <a:effectLst/>
             </c:spPr>
             <c:trendlineType val="linear"/>
-            <c:dispRSqr val="1"/>
-            <c:dispEq val="1"/>
-            <c:trendlineLbl>
-              <c:layout>
-                <c:manualLayout>
-                  <c:x val="-0.6208456891817683"/>
-                  <c:y val="-4.7932341790609505E-2"/>
-                </c:manualLayout>
-              </c:layout>
-              <c:numFmt formatCode="General" sourceLinked="0"/>
-              <c:spPr>
-                <a:noFill/>
-                <a:ln>
-                  <a:noFill/>
-                </a:ln>
-                <a:effectLst/>
-              </c:spPr>
-              <c:txPr>
-                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-                <a:lstStyle/>
-                <a:p>
-                  <a:pPr>
-                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                      <a:solidFill>
-                        <a:schemeClr val="tx2"/>
-                      </a:solidFill>
-                      <a:latin typeface="+mn-lt"/>
-                      <a:ea typeface="+mn-ea"/>
-                      <a:cs typeface="+mn-cs"/>
-                    </a:defRPr>
-                  </a:pPr>
-                  <a:endParaRPr lang="es-EC"/>
-                </a:p>
-              </c:txPr>
-            </c:trendlineLbl>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
           </c:trendline>
-          <c:xVal>
+          <c:cat>
             <c:numRef>
               <c:f>'FAO PESTICIDAS'!$A$2:$A$28</c:f>
               <c:numCache>
@@ -789,8 +808,8 @@
                 </c:pt>
               </c:numCache>
             </c:numRef>
-          </c:xVal>
-          <c:yVal>
+          </c:cat>
+          <c:val>
             <c:numRef>
               <c:f>'FAO PESTICIDAS'!$B$2:$B$28</c:f>
               <c:numCache>
@@ -879,7 +898,7 @@
                 </c:pt>
               </c:numCache>
             </c:numRef>
-          </c:yVal>
+          </c:val>
           <c:smooth val="1"/>
           <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
@@ -895,14 +914,15 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="427446240"/>
-        <c:axId val="427447360"/>
-      </c:scatterChart>
-      <c:valAx>
-        <c:axId val="427446240"/>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="439394128"/>
+        <c:axId val="439394688"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="439394128"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="2016"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -970,18 +990,19 @@
           </c:txPr>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
+        <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
-          <a:ln>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
             <a:solidFill>
               <a:schemeClr val="tx2">
                 <a:lumMod val="40000"/>
                 <a:lumOff val="60000"/>
               </a:schemeClr>
             </a:solidFill>
+            <a:round/>
           </a:ln>
           <a:effectLst/>
         </c:spPr>
@@ -1002,13 +1023,17 @@
             <a:endParaRPr lang="es-EC"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="427447360"/>
+        <c:crossAx val="439394688"/>
         <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-        <c:majorUnit val="2"/>
-      </c:valAx>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:tickLblSkip val="2"/>
+        <c:tickMarkSkip val="3"/>
+        <c:noMultiLvlLbl val="1"/>
+      </c:catAx>
       <c:valAx>
-        <c:axId val="427447360"/>
+        <c:axId val="439394688"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1110,9 +1135,9 @@
             <a:endParaRPr lang="es-EC"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="427446240"/>
+        <c:crossAx val="439394128"/>
         <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
+        <c:crossBetween val="between"/>
       </c:valAx>
       <c:spPr>
         <a:noFill/>
@@ -1192,6 +1217,420 @@
 </file>
 
 <file path=xl/charts/chart10.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="es-ES"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>TENDENCIA MANABÍ</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>2016</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-EC"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="0.15806953275225624"/>
+                  <c:y val="-0.1436078302712161"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="es-EC"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'cw_chemical_trend MSE'!$A$6:$A$10</c:f>
+              <c:numCache>
+                <c:formatCode>@</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>2012</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2013</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2014</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2015</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2016</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'cw_chemical_trend MSE'!$E$6:$E$10</c:f>
+              <c:numCache>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1386.07581</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>760.54383000000007</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1387.9594500000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4213.1383800000003</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4297.2259199999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-C19C-4F02-98C8-458D6047B13D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="435463264"/>
+        <c:axId val="435463824"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="435463264"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="@" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-EC"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="435463824"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="435463824"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.0" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-EC"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="435463264"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="es-EC"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart11.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="es-ES"/>
@@ -1412,11 +1851,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="277829248"/>
-        <c:axId val="277829808"/>
+        <c:axId val="435466064"/>
+        <c:axId val="435466624"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="277829248"/>
+        <c:axId val="435466064"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1473,12 +1912,12 @@
             <a:endParaRPr lang="es-EC"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="277829808"/>
+        <c:crossAx val="435466624"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="277829808"/>
+        <c:axId val="435466624"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1535,7 +1974,7 @@
             <a:endParaRPr lang="es-EC"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="277829248"/>
+        <c:crossAx val="435466064"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1591,7 +2030,573 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart12.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="es-ES"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="es-EC"/>
+              <a:t>Tendencia</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="es-EC" baseline="0"/>
+              <a:t> de contaminación química</a:t>
+            </a:r>
+            <a:endParaRPr lang="es-EC"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-EC"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Manabí</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'cw_chemical_trend MSE'!$A$7:$A$10</c:f>
+              <c:numCache>
+                <c:formatCode>@</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>2013</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2014</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2015</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2016</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'cw_chemical_trend MSE'!$I$7:$I$10</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>-1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-0.84528505522019615</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.82947620998716098</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Santa Elena</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'cw_chemical_trend MSE'!$A$7:$A$10</c:f>
+              <c:numCache>
+                <c:formatCode>@</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>2013</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2014</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2015</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2016</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'cw_chemical_trend MSE'!$J$7:$J$10</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>-1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-0.71752132933687496</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-9.6371198857713777E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="456742320"/>
+        <c:axId val="456742880"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="456742320"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Año</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="es-EC"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="@" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="low"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-EC"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="456742880"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="456742880"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:min val="-1.5"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Tendencia</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="es-EC"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0.00" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-EC"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="456742320"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:dTable>
+        <c:showHorzBorder val="1"/>
+        <c:showVertBorder val="1"/>
+        <c:showOutline val="1"/>
+        <c:showKeys val="1"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr rtl="0">
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-EC"/>
+          </a:p>
+        </c:txPr>
+      </c:dTable>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="es-EC"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart13.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="es-ES"/>
@@ -1734,7 +2739,7 @@
                   <c:v>-9.6371198857713777E-3</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-1.9896991517898269E-2</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1810,7 +2815,7 @@
                   <c:v>-0.84528505522019615</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1</c:v>
+                  <c:v>0.82947620998716098</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>1</c:v>
@@ -1835,11 +2840,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="562627856"/>
-        <c:axId val="562628416"/>
+        <c:axId val="456746240"/>
+        <c:axId val="456746800"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="562627856"/>
+        <c:axId val="456746240"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1952,7 +2957,7 @@
             <a:endParaRPr lang="es-EC"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="562628416"/>
+        <c:crossAx val="456746800"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1961,7 +2966,7 @@
         <c:noMultiLvlLbl val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="562628416"/>
+        <c:axId val="456746800"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2074,7 +3079,7 @@
             <a:endParaRPr lang="es-EC"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="562627856"/>
+        <c:crossAx val="456746240"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2183,7 +3188,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:defRPr sz="2000" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -2196,12 +3201,13 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="en-US"/>
+              <a:rPr lang="en-US" sz="2000"/>
               <a:t>Área sembrada (ha) en Manabí y Santa Elena, 2009-2018</a:t>
             </a:r>
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2215,7 +3221,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+            <a:defRPr sz="2000" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
@@ -2232,45 +3238,6 @@
       </c:txPr>
     </c:title>
     <c:autoTitleDeleted val="0"/>
-    <c:view3D>
-      <c:rotX val="15"/>
-      <c:rotY val="20"/>
-      <c:depthPercent val="100"/>
-      <c:rAngAx val="1"/>
-    </c:view3D>
-    <c:floor>
-      <c:thickness val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-        <a:sp3d/>
-      </c:spPr>
-    </c:floor>
-    <c:sideWall>
-      <c:thickness val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-        <a:sp3d/>
-      </c:spPr>
-    </c:sideWall>
-    <c:backWall>
-      <c:thickness val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-        <a:sp3d/>
-      </c:spPr>
-    </c:backWall>
     <c:plotArea>
       <c:layout>
         <c:manualLayout>
@@ -2278,12 +3245,12 @@
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
           <c:x val="0.20170312313607308"/>
-          <c:y val="0.11508420780795836"/>
+          <c:y val="0.17134274657774742"/>
           <c:w val="0.76829688080093428"/>
-          <c:h val="0.63533412541176715"/>
+          <c:h val="0.61160201569827377"/>
         </c:manualLayout>
       </c:layout>
-      <c:bar3DChart>
+      <c:barChart>
         <c:barDir val="col"/>
         <c:grouping val="stacked"/>
         <c:varyColors val="0"/>
@@ -2301,7 +3268,6 @@
               <a:noFill/>
             </a:ln>
             <a:effectLst/>
-            <a:sp3d/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:cat>
@@ -2368,7 +3334,7 @@
                   <c:v>311901</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>713580</c:v>
+                  <c:v>351681</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>347672</c:v>
@@ -2402,7 +3368,6 @@
               <a:noFill/>
             </a:ln>
             <a:effectLst/>
-            <a:sp3d/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:cat>
@@ -2498,13 +3463,12 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:shape val="box"/>
-        <c:axId val="427450720"/>
-        <c:axId val="427451280"/>
-        <c:axId val="0"/>
-      </c:bar3DChart>
+        <c:overlap val="100"/>
+        <c:axId val="456623312"/>
+        <c:axId val="456623872"/>
+      </c:barChart>
       <c:catAx>
-        <c:axId val="427450720"/>
+        <c:axId val="456623312"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2541,7 +3505,7 @@
             <a:endParaRPr lang="es-EC"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="427451280"/>
+        <c:crossAx val="456623872"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2549,7 +3513,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="427451280"/>
+        <c:axId val="456623872"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2600,7 +3564,7 @@
             <a:endParaRPr lang="es-EC"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="427450720"/>
+        <c:crossAx val="456623312"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2709,6 +3673,574 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
+              <a:defRPr sz="2000" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="2000"/>
+              <a:t>Área sembrada (ha) Nacional,</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" sz="2000" baseline="0"/>
+              <a:t> </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" sz="2000"/>
+              <a:t>Manabí y Santa Elena, 2009-2018</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="2000" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-EC"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.20170312313607308"/>
+          <c:y val="0.17134274657774742"/>
+          <c:w val="0.76829688080093428"/>
+          <c:h val="0.61160201569827377"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="stacked"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Siembra Manabí (ha)</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>'HECTAREAS PLANTADAS MSE'!$B$1:$K$1</c:f>
+              <c:numCache>
+                <c:formatCode>@</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>2009</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2010</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2011</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2012</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2013</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2014</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2015</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2016</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2017</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2018</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'HECTAREAS PLANTADAS MSE'!$B$32:$K$32</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>335426</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>324770</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>333349</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>305977</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>312981</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>311901</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>351681</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>347672</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>318640</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>334958.93833447748</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-BC3F-43C9-8BE9-4BC655DA2BEA}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Siembra Santa Elena (ha)</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>'HECTAREAS PLANTADAS MSE'!$B$1:$K$1</c:f>
+              <c:numCache>
+                <c:formatCode>@</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>2009</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2010</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2011</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2012</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2013</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2014</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2015</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2016</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2017</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2018</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'HECTAREAS PLANTADAS MSE'!$B$65:$K$65</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>6313</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6321</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>9438</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6973</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8039</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>10056</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4842</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>6584</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>6287</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>6703.9356853828458</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-BC3F-43C9-8BE9-4BC655DA2BEA}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:overlap val="100"/>
+        <c:axId val="456697552"/>
+        <c:axId val="456698112"/>
+      </c:barChart>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>Siembra nacional (ha)</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'HECTAREAS PLANTADAS MSE'!$B$108:$K$108</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>2638855</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2617281</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2694054</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2522234.8359707333</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2603102.7412192184</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2768423.2720697508</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2665553.3519984465</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2452711.2888226495</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2516529.3348831222</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2319263.9764246647</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="456697552"/>
+        <c:axId val="456698112"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="456697552"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="@" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-EC"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="456698112"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="456698112"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="#,##0" sourceLinked="0"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-EC"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="456697552"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:dTable>
+        <c:showHorzBorder val="1"/>
+        <c:showVertBorder val="1"/>
+        <c:showOutline val="1"/>
+        <c:showKeys val="1"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr rtl="0">
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-EC"/>
+          </a:p>
+        </c:txPr>
+      </c:dTable>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="es-EC"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="es-ES"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
               <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
@@ -2728,6 +4260,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2915,11 +4448,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="418054592"/>
-        <c:axId val="418055152"/>
+        <c:axId val="457055696"/>
+        <c:axId val="457056256"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="418054592"/>
+        <c:axId val="457055696"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2976,12 +4509,12 @@
             <a:endParaRPr lang="es-EC"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="418055152"/>
+        <c:crossAx val="457056256"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="418055152"/>
+        <c:axId val="457056256"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3038,7 +4571,7 @@
             <a:endParaRPr lang="es-EC"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="418054592"/>
+        <c:crossAx val="457055696"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3094,7 +4627,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="es-ES"/>
@@ -3134,6 +4667,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3321,11 +4855,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="418057392"/>
-        <c:axId val="418057952"/>
+        <c:axId val="457058672"/>
+        <c:axId val="457059232"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="418057392"/>
+        <c:axId val="457058672"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3382,12 +4916,12 @@
             <a:endParaRPr lang="es-EC"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="418057952"/>
+        <c:crossAx val="457059232"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="418057952"/>
+        <c:axId val="457059232"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3444,7 +4978,7 @@
             <a:endParaRPr lang="es-EC"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="418057392"/>
+        <c:crossAx val="457058672"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3500,7 +5034,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="es-ES"/>
@@ -3545,6 +5079,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3732,11 +5267,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="418060192"/>
-        <c:axId val="411113776"/>
+        <c:axId val="438902800"/>
+        <c:axId val="438903360"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="418060192"/>
+        <c:axId val="438902800"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3793,12 +5328,12 @@
             <a:endParaRPr lang="es-EC"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="411113776"/>
+        <c:crossAx val="438903360"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="411113776"/>
+        <c:axId val="438903360"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3855,7 +5390,7 @@
             <a:endParaRPr lang="es-EC"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="418060192"/>
+        <c:crossAx val="438902800"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3911,7 +5446,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="es-ES"/>
@@ -3951,6 +5486,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -4138,11 +5674,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="411116016"/>
-        <c:axId val="411116576"/>
+        <c:axId val="438905600"/>
+        <c:axId val="438906160"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="411116016"/>
+        <c:axId val="438905600"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4199,12 +5735,12 @@
             <a:endParaRPr lang="es-EC"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="411116576"/>
+        <c:crossAx val="438906160"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="411116576"/>
+        <c:axId val="438906160"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4261,7 +5797,7 @@
             <a:endParaRPr lang="es-EC"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="411116016"/>
+        <c:crossAx val="438905600"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4317,7 +5853,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="es-ES"/>
@@ -4450,6 +5986,12 @@
             <c:dispRSqr val="0"/>
             <c:dispEq val="1"/>
             <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="0.11459345656659228"/>
+                  <c:y val="-0.29539224263633712"/>
+                </c:manualLayout>
+              </c:layout>
               <c:numFmt formatCode="General" sourceLinked="0"/>
               <c:spPr>
                 <a:noFill/>
@@ -4523,7 +6065,7 @@
                   <c:v>1387.9594500000001</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>8548.6884000000009</c:v>
+                  <c:v>4213.1383800000003</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4543,11 +6085,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="411118816"/>
-        <c:axId val="411119376"/>
+        <c:axId val="438908400"/>
+        <c:axId val="438908960"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="411118816"/>
+        <c:axId val="438908400"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4604,12 +6146,12 @@
             <a:endParaRPr lang="es-EC"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="411119376"/>
+        <c:crossAx val="438908960"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="411119376"/>
+        <c:axId val="438908960"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4666,7 +6208,7 @@
             <a:endParaRPr lang="es-EC"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="411118816"/>
+        <c:crossAx val="438908400"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4722,7 +6264,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="es-ES"/>
@@ -4850,6 +6392,12 @@
             <c:dispRSqr val="0"/>
             <c:dispEq val="1"/>
             <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="0.11249901788306831"/>
+                  <c:y val="-0.27729221347331584"/>
+                </c:manualLayout>
+              </c:layout>
               <c:numFmt formatCode="General" sourceLinked="0"/>
               <c:spPr>
                 <a:noFill/>
@@ -4943,11 +6491,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="277823648"/>
-        <c:axId val="277824208"/>
+        <c:axId val="435460464"/>
+        <c:axId val="435461024"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="277823648"/>
+        <c:axId val="435460464"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5004,12 +6552,12 @@
             <a:endParaRPr lang="es-EC"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="277824208"/>
+        <c:crossAx val="435461024"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="277824208"/>
+        <c:axId val="435461024"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5066,421 +6614,7 @@
             <a:endParaRPr lang="es-EC"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="277823648"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
-        <c16r3:dataDisplayOptions16>
-          <c16r3:dispNaAsBlank val="1"/>
-        </c16r3:dataDisplayOptions16>
-      </c:ext>
-    </c:extLst>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="es-EC"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:date1904 val="0"/>
-  <c:lang val="es-ES"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US"/>
-              <a:t>TENDENCIA MANABÍ</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="en-US" baseline="0"/>
-              <a:t> </a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="en-US"/>
-              <a:t>2016</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="es-EC"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:scatterChart>
-        <c:scatterStyle val="lineMarker"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:noFill/>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:trendline>
-            <c:spPr>
-              <a:ln w="19050" cap="rnd">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-                <a:prstDash val="sysDot"/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:trendlineType val="linear"/>
-            <c:dispRSqr val="0"/>
-            <c:dispEq val="0"/>
-          </c:trendline>
-          <c:trendline>
-            <c:spPr>
-              <a:ln w="19050" cap="rnd">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-                <a:prstDash val="sysDot"/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:trendlineType val="linear"/>
-            <c:dispRSqr val="0"/>
-            <c:dispEq val="1"/>
-            <c:trendlineLbl>
-              <c:layout>
-                <c:manualLayout>
-                  <c:x val="0.15830227471566055"/>
-                  <c:y val="-0.19950459317585301"/>
-                </c:manualLayout>
-              </c:layout>
-              <c:numFmt formatCode="General" sourceLinked="0"/>
-              <c:spPr>
-                <a:noFill/>
-                <a:ln>
-                  <a:noFill/>
-                </a:ln>
-                <a:effectLst/>
-              </c:spPr>
-              <c:txPr>
-                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-                <a:lstStyle/>
-                <a:p>
-                  <a:pPr>
-                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                      <a:solidFill>
-                        <a:schemeClr val="tx1">
-                          <a:lumMod val="65000"/>
-                          <a:lumOff val="35000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                      <a:latin typeface="+mn-lt"/>
-                      <a:ea typeface="+mn-ea"/>
-                      <a:cs typeface="+mn-cs"/>
-                    </a:defRPr>
-                  </a:pPr>
-                  <a:endParaRPr lang="es-EC"/>
-                </a:p>
-              </c:txPr>
-            </c:trendlineLbl>
-          </c:trendline>
-          <c:xVal>
-            <c:numRef>
-              <c:f>'cw_chemical_trend MSE'!$A$6:$A$10</c:f>
-              <c:numCache>
-                <c:formatCode>@</c:formatCode>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>2012</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2013</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2014</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>2015</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>2016</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>'cw_chemical_trend MSE'!$E$6:$E$10</c:f>
-              <c:numCache>
-                <c:formatCode>0.0</c:formatCode>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>1386.07581</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>760.54383000000007</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1387.9594500000001</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>8548.6884000000009</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>4297.2259199999999</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-C19C-4F02-98C8-458D6047B13D}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:axId val="277826448"/>
-        <c:axId val="277827008"/>
-      </c:scatterChart>
-      <c:valAx>
-        <c:axId val="277826448"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="@" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="es-EC"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="277827008"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:valAx>
-        <c:axId val="277827008"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="0.0" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="es-EC"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="277826448"/>
+        <c:crossAx val="435460464"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -5617,6 +6751,86 @@
 </file>
 
 <file path=xl/charts/colors11.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors12.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors13.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -7487,8 +8701,8 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="286">
+<file path=xl/charts/style12.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -7511,6 +8725,17 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:categoryAxis>
   <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
@@ -7606,7 +8831,7 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="28575" cap="rnd">
+      <a:ln w="19050" cap="rnd">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
@@ -7638,10 +8863,10 @@
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="rnd">
@@ -7962,6 +9187,17 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:valueAxis>
   <cs:wall>
@@ -7981,7 +9217,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style13.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -8478,6 +9714,994 @@
         <a:round/>
       </a:ln>
     </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="286">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="286">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:valueAxis>
   <cs:wall>
@@ -11603,8 +13827,8 @@
       <xdr:rowOff>109537</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>209550</xdr:colOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
       <xdr:row>16</xdr:row>
       <xdr:rowOff>66675</xdr:rowOff>
     </xdr:to>
@@ -11663,6 +13887,38 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>-1</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>417021</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>165368</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Gráfico 2"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -11972,6 +14228,36 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId8"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>247650</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>123825</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Gráfico 2"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId9"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -12929,8 +15215,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B31"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="O25" sqref="O25"/>
+    <sheetView topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="AA28" sqref="AA28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12944,7 +15230,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>9</v>
+        <v>56</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -13161,6 +15447,12 @@
       </c>
       <c r="B28" s="3">
         <v>12.36</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B29">
+        <f>AVERAGE(B2:B28)</f>
+        <v>4.9840740740740737</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
@@ -13179,8 +15471,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U116"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="L3" sqref="L3"/>
+    <sheetView topLeftCell="I22" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="S49" sqref="S49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13189,14 +15481,19 @@
     <col min="2" max="3" width="15.5703125" style="21" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="17" style="21" bestFit="1" customWidth="1"/>
     <col min="5" max="10" width="15.5703125" style="21" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11.7109375" style="25" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.85546875" style="25" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="12" style="37" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="11.42578125" style="21"/>
+    <col min="13" max="15" width="11.42578125" style="21"/>
+    <col min="16" max="16" width="17.85546875" style="21" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="17" style="21" customWidth="1"/>
+    <col min="18" max="18" width="17.85546875" style="21" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="13" style="21" bestFit="1" customWidth="1"/>
+    <col min="20" max="16384" width="11.42578125" style="21"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="42" x14ac:dyDescent="0.35">
       <c r="A1" s="18" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B1" s="38">
         <v>2009</v>
@@ -13232,7 +15529,7 @@
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A2" s="22" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B2" s="23"/>
       <c r="C2" s="23"/>
@@ -13251,7 +15548,7 @@
         <v>12</v>
       </c>
       <c r="L2" s="37">
-        <f>AVERAGE(C2:K2)</f>
+        <f>AVERAGE(B2:K2)</f>
         <v>7.666666666666667</v>
       </c>
       <c r="M2" s="25"/>
@@ -13266,7 +15563,7 @@
     </row>
     <row r="3" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A3" s="22" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B3" s="23">
         <v>10690</v>
@@ -13298,13 +15595,13 @@
         <v>3214.0668282814031</v>
       </c>
       <c r="L3" s="37">
-        <f t="shared" ref="L3:L32" si="0">AVERAGE(C3:K3)</f>
-        <v>6126.383353535175</v>
+        <f t="shared" ref="L3:L32" si="0">AVERAGE(B3:K3)</f>
+        <v>6633.4518698090442</v>
       </c>
     </row>
     <row r="4" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A4" s="22" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B4" s="27">
         <v>103699</v>
@@ -13340,12 +15637,12 @@
       </c>
       <c r="L4" s="37">
         <f t="shared" si="0"/>
-        <v>108632.22496944111</v>
+        <v>108138.90247249701</v>
       </c>
     </row>
     <row r="5" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A5" s="22" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B5" s="23">
         <f>44029+34053</f>
@@ -13382,12 +15679,12 @@
       </c>
       <c r="L5" s="37">
         <f t="shared" si="0"/>
-        <v>40985.381889325246</v>
+        <v>44695.043700392722</v>
       </c>
     </row>
     <row r="6" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A6" s="29" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B6" s="23">
         <v>1083</v>
@@ -13422,12 +15719,12 @@
       </c>
       <c r="L6" s="37">
         <f t="shared" si="0"/>
-        <v>1175.6789349679611</v>
+        <v>1166.4110414711649</v>
       </c>
     </row>
     <row r="7" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A7" s="29" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B7" s="23"/>
       <c r="C7" s="23"/>
@@ -13453,7 +15750,7 @@
     </row>
     <row r="8" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A8" s="29" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B8" s="23"/>
       <c r="C8" s="23"/>
@@ -13482,7 +15779,7 @@
     </row>
     <row r="9" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A9" s="22" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B9" s="30">
         <f>6689+417</f>
@@ -13519,12 +15816,12 @@
       </c>
       <c r="L9" s="37">
         <f t="shared" si="0"/>
-        <v>2820.8887976672468</v>
+        <v>3249.3999179005218</v>
       </c>
     </row>
     <row r="10" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A10" s="22" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B10" s="23">
         <f>3249+728</f>
@@ -13561,12 +15858,12 @@
       </c>
       <c r="L10" s="37">
         <f t="shared" si="0"/>
-        <v>3469.2366114912029</v>
+        <v>3520.0129503420831</v>
       </c>
     </row>
     <row r="11" spans="1:21" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="22" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B11" s="23">
         <f>1282+100</f>
@@ -13603,12 +15900,12 @@
       </c>
       <c r="L11" s="37">
         <f t="shared" si="0"/>
-        <v>8246.4472870920526</v>
+        <v>7560.0025583828483</v>
       </c>
     </row>
     <row r="12" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A12" s="22" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B12" s="23"/>
       <c r="C12" s="23"/>
@@ -13636,7 +15933,7 @@
     </row>
     <row r="13" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A13" s="22" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B13" s="23">
         <f>31069+14985</f>
@@ -13659,7 +15956,7 @@
         <v>47373</v>
       </c>
       <c r="H13" s="23">
-        <v>414518</v>
+        <v>52619</v>
       </c>
       <c r="I13" s="26">
         <v>41112</v>
@@ -13673,12 +15970,12 @@
       </c>
       <c r="L13" s="37">
         <f t="shared" si="0"/>
-        <v>88394.022043372912</v>
+        <v>47970.119839035629</v>
       </c>
     </row>
     <row r="14" spans="1:21" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="22" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B14" s="23">
         <v>0</v>
@@ -13717,7 +16014,7 @@
     </row>
     <row r="15" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A15" s="32" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B15" s="23">
         <v>15749</v>
@@ -13752,12 +16049,12 @@
       </c>
       <c r="L15" s="37">
         <f t="shared" si="0"/>
-        <v>14063.073358794129</v>
+        <v>14231.666022914715</v>
       </c>
     </row>
     <row r="16" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A16" s="32" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B16" s="23">
         <v>0</v>
@@ -13794,9 +16091,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A17" s="32" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B17" s="23">
         <v>0</v>
@@ -13833,9 +16130,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A18" s="32" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B18" s="23"/>
       <c r="C18" s="23"/>
@@ -13854,9 +16151,9 @@
         <v>135</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A19" s="32" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B19" s="23">
         <f>99+521</f>
@@ -13893,12 +16190,12 @@
       </c>
       <c r="L19" s="37">
         <f t="shared" si="0"/>
-        <v>572.66191590488199</v>
+        <v>577.39572431439387</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A20" s="32" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B20" s="23">
         <f>1006+121</f>
@@ -13935,12 +16232,12 @@
       </c>
       <c r="L20" s="37">
         <f t="shared" si="0"/>
-        <v>912.91528972635251</v>
+        <v>934.32376075371724</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A21" s="32" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B21" s="23">
         <v>0</v>
@@ -13974,12 +16271,12 @@
       </c>
       <c r="L21" s="37">
         <f t="shared" si="0"/>
-        <v>187.88888888888889</v>
+        <v>169.1</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A22" s="32" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B22" s="23">
         <f>326+270</f>
@@ -14014,12 +16311,12 @@
       </c>
       <c r="L22" s="37">
         <f t="shared" si="0"/>
-        <v>544.44444444444446</v>
+        <v>549.6</v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A23" s="32" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B23" s="23">
         <f>1859+2239</f>
@@ -14056,12 +16353,12 @@
       </c>
       <c r="L23" s="37">
         <f t="shared" si="0"/>
-        <v>7683.090280789057</v>
+        <v>7324.5812527101516</v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A24" s="32" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B24" s="23">
         <f>34871+21248</f>
@@ -14098,12 +16395,12 @@
       </c>
       <c r="L24" s="37">
         <f t="shared" si="0"/>
-        <v>79099.394046427478</v>
+        <v>76801.354641784725</v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A25" s="32" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B25" s="23">
         <v>1838</v>
@@ -14137,12 +16434,12 @@
       </c>
       <c r="L25" s="37">
         <f t="shared" si="0"/>
-        <v>201.44444444444446</v>
+        <v>365.1</v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A26" s="32" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B26" s="23">
         <v>0</v>
@@ -14176,12 +16473,12 @@
       </c>
       <c r="L26" s="37">
         <f t="shared" si="0"/>
-        <v>27.444444444444443</v>
+        <v>24.7</v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A27" s="32" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B27" s="23"/>
       <c r="C27" s="23"/>
@@ -14205,9 +16502,9 @@
         <v>2096.0073764391768</v>
       </c>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A28" s="32" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B28" s="23">
         <v>0</v>
@@ -14244,9 +16541,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A29" s="32" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B29" s="23"/>
       <c r="C29" s="23"/>
@@ -14272,10 +16569,15 @@
         <f t="shared" si="0"/>
         <v>36.6</v>
       </c>
+      <c r="O29"/>
+      <c r="P29"/>
+      <c r="Q29"/>
+      <c r="R29"/>
+      <c r="S29"/>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A30" s="32" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B30" s="23">
         <v>403</v>
@@ -14309,12 +16611,17 @@
       </c>
       <c r="L30" s="37">
         <f t="shared" si="0"/>
-        <v>123.22222222222223</v>
-      </c>
+        <v>151.19999999999999</v>
+      </c>
+      <c r="O30"/>
+      <c r="P30"/>
+      <c r="Q30"/>
+      <c r="R30"/>
+      <c r="S30"/>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A31" s="32" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B31" s="23">
         <f>1770+1033</f>
@@ -14351,12 +16658,17 @@
       </c>
       <c r="L31" s="37">
         <f t="shared" si="0"/>
-        <v>2758.6751171688693</v>
-      </c>
+        <v>2763.1076054519826</v>
+      </c>
+      <c r="O31"/>
+      <c r="P31"/>
+      <c r="Q31"/>
+      <c r="R31"/>
+      <c r="S31"/>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A32" s="33" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B32" s="17">
         <f t="shared" ref="B32:K32" si="1">SUM(B2:B31)</f>
@@ -14384,7 +16696,7 @@
       </c>
       <c r="H32" s="17">
         <f t="shared" si="1"/>
-        <v>713580</v>
+        <v>351681</v>
       </c>
       <c r="I32" s="17">
         <f t="shared" si="1"/>
@@ -14400,18 +16712,28 @@
       </c>
       <c r="L32" s="37">
         <f t="shared" si="0"/>
-        <v>367092.10425938643</v>
-      </c>
+        <v>327735.59383344778</v>
+      </c>
+      <c r="O32"/>
+      <c r="P32"/>
+      <c r="Q32"/>
+      <c r="R32"/>
+      <c r="S32"/>
     </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:19" x14ac:dyDescent="0.25">
       <c r="K33" s="21"/>
+      <c r="O33"/>
+      <c r="P33"/>
+      <c r="Q33"/>
+      <c r="R33"/>
+      <c r="S33"/>
     </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:19" x14ac:dyDescent="0.25">
       <c r="K34" s="21"/>
     </row>
-    <row r="35" spans="1:12" ht="42" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:19" ht="55.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A35" s="18" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B35" s="38">
         <v>2009</v>
@@ -14444,9 +16766,9 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A36" s="22" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B36" s="23"/>
       <c r="C36" s="23"/>
@@ -14465,13 +16787,25 @@
         <v>41</v>
       </c>
       <c r="L36" s="37">
-        <f t="shared" ref="L36:L41" si="2">AVERAGE(B36:J36)</f>
-        <v>4.5</v>
+        <f>AVERAGE(B36:K36)</f>
+        <v>16.666666666666668</v>
+      </c>
+      <c r="P36" s="33" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q36" s="33" t="s">
+        <v>57</v>
+      </c>
+      <c r="R36" s="33" t="s">
+        <v>58</v>
+      </c>
+      <c r="S36" s="33" t="s">
+        <v>59</v>
       </c>
     </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A37" s="22" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B37" s="23">
         <v>88</v>
@@ -14503,13 +16837,26 @@
         <v>1602.3916320069006</v>
       </c>
       <c r="L37" s="37">
-        <f t="shared" si="2"/>
-        <v>405.375</v>
+        <f t="shared" ref="L37:L64" si="2">AVERAGE(B37:K37)</f>
+        <v>538.3768480007667</v>
+      </c>
+      <c r="P37" s="43">
+        <v>2009</v>
+      </c>
+      <c r="Q37" s="44">
+        <v>335426</v>
+      </c>
+      <c r="R37" s="44">
+        <v>6313</v>
+      </c>
+      <c r="S37" s="17">
+        <f>SUM(Q37:R37)</f>
+        <v>341739</v>
       </c>
     </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A38" s="22" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B38" s="23">
         <v>0</v>
@@ -14544,12 +16891,25 @@
       </c>
       <c r="L38" s="37">
         <f t="shared" si="2"/>
-        <v>211.33333333333334</v>
+        <v>230.24061352232383</v>
+      </c>
+      <c r="P38" s="43">
+        <v>2010</v>
+      </c>
+      <c r="Q38" s="44">
+        <v>324770</v>
+      </c>
+      <c r="R38" s="44">
+        <v>6321</v>
+      </c>
+      <c r="S38" s="17">
+        <f t="shared" ref="S38:S46" si="3">SUM(Q38:R38)</f>
+        <v>331091</v>
       </c>
     </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A39" s="22" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B39" s="23">
         <v>340</v>
@@ -14584,12 +16944,25 @@
       </c>
       <c r="L39" s="37">
         <f t="shared" si="2"/>
-        <v>280.55555555555554</v>
+        <v>292.10338847410077</v>
+      </c>
+      <c r="P39" s="43">
+        <v>2011</v>
+      </c>
+      <c r="Q39" s="44">
+        <v>333349</v>
+      </c>
+      <c r="R39" s="44">
+        <v>9438</v>
+      </c>
+      <c r="S39" s="17">
+        <f t="shared" si="3"/>
+        <v>342787</v>
       </c>
     </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A40" s="29" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B40" s="23">
         <v>0</v>
@@ -14622,12 +16995,25 @@
       </c>
       <c r="L40" s="37">
         <f t="shared" si="2"/>
-        <v>0.125</v>
+        <v>17.786437777929457</v>
+      </c>
+      <c r="P40" s="43">
+        <v>2012</v>
+      </c>
+      <c r="Q40" s="44">
+        <v>305977</v>
+      </c>
+      <c r="R40" s="44">
+        <v>6973</v>
+      </c>
+      <c r="S40" s="17">
+        <f t="shared" si="3"/>
+        <v>312950</v>
       </c>
     </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A41" s="29" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B41" s="23"/>
       <c r="C41" s="23"/>
@@ -14648,12 +17034,25 @@
       </c>
       <c r="L41" s="37">
         <f t="shared" si="2"/>
-        <v>181.5</v>
+        <v>157.39944864593704</v>
+      </c>
+      <c r="P41" s="43">
+        <v>2013</v>
+      </c>
+      <c r="Q41" s="44">
+        <v>312981</v>
+      </c>
+      <c r="R41" s="44">
+        <v>8039</v>
+      </c>
+      <c r="S41" s="17">
+        <f t="shared" si="3"/>
+        <v>321020</v>
       </c>
     </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A42" s="29" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B42" s="23"/>
       <c r="C42" s="23"/>
@@ -14676,13 +17075,26 @@
         <v>68</v>
       </c>
       <c r="L42" s="37">
-        <f>AVERAGE(B42:K42)</f>
+        <f t="shared" si="2"/>
         <v>20.8</v>
       </c>
+      <c r="P42" s="43">
+        <v>2014</v>
+      </c>
+      <c r="Q42" s="44">
+        <v>311901</v>
+      </c>
+      <c r="R42" s="44">
+        <v>10056</v>
+      </c>
+      <c r="S42" s="17">
+        <f t="shared" si="3"/>
+        <v>321957</v>
+      </c>
     </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A43" s="22" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B43" s="23">
         <v>59</v>
@@ -14716,13 +17128,26 @@
         <v>45.981777937932542</v>
       </c>
       <c r="L43" s="37">
-        <f>AVERAGE(B43:J43)</f>
-        <v>103.55555555555556</v>
+        <f t="shared" si="2"/>
+        <v>97.798177793793258</v>
+      </c>
+      <c r="P43" s="43">
+        <v>2015</v>
+      </c>
+      <c r="Q43" s="44">
+        <v>351681</v>
+      </c>
+      <c r="R43" s="44">
+        <v>4842</v>
+      </c>
+      <c r="S43" s="17">
+        <f t="shared" si="3"/>
+        <v>356523</v>
       </c>
     </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A44" s="22" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B44" s="23">
         <v>0</v>
@@ -14755,13 +17180,26 @@
         <v>29</v>
       </c>
       <c r="L44" s="37">
-        <f>AVERAGE(B44:K44)</f>
+        <f t="shared" si="2"/>
         <v>30.9</v>
       </c>
+      <c r="P44" s="43">
+        <v>2016</v>
+      </c>
+      <c r="Q44" s="44">
+        <v>347672</v>
+      </c>
+      <c r="R44" s="44">
+        <v>6584</v>
+      </c>
+      <c r="S44" s="17">
+        <f t="shared" si="3"/>
+        <v>354256</v>
+      </c>
     </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A45" s="22" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B45" s="23">
         <v>0</v>
@@ -14795,10 +17233,23 @@
         <f>AVERAGE(B45:K45)</f>
         <v>87.444444444444443</v>
       </c>
+      <c r="P45" s="43">
+        <v>2017</v>
+      </c>
+      <c r="Q45" s="44">
+        <v>318640</v>
+      </c>
+      <c r="R45" s="44">
+        <v>6287</v>
+      </c>
+      <c r="S45" s="17">
+        <f t="shared" si="3"/>
+        <v>324927</v>
+      </c>
     </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A46" s="22" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B46" s="23"/>
       <c r="C46" s="23"/>
@@ -14819,13 +17270,26 @@
         <v>0</v>
       </c>
       <c r="L46" s="37">
-        <f>AVERAGE(B46:K46)</f>
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="P46" s="43">
+        <v>2018</v>
+      </c>
+      <c r="Q46" s="44">
+        <v>334958.93833447748</v>
+      </c>
+      <c r="R46" s="44">
+        <v>6703.9356853828458</v>
+      </c>
+      <c r="S46" s="17">
+        <f t="shared" si="3"/>
+        <v>341662.87401986035</v>
       </c>
     </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A47" s="22" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B47" s="23">
         <v>53</v>
@@ -14860,13 +17324,25 @@
         <v>771.63340773760865</v>
       </c>
       <c r="L47" s="37">
-        <f>AVERAGE(B47:J47)</f>
-        <v>352.77777777777777</v>
-      </c>
+        <f t="shared" si="2"/>
+        <v>394.66334077376086</v>
+      </c>
+      <c r="P47" s="33" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q47" s="31">
+        <f>AVERAGE(Q37:Q46)</f>
+        <v>327735.59383344778</v>
+      </c>
+      <c r="R47" s="31">
+        <f>AVERAGE(R37:R46)</f>
+        <v>7155.693568538285</v>
+      </c>
+      <c r="S47" s="31"/>
     </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A48" s="22" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B48" s="23">
         <v>0</v>
@@ -14899,13 +17375,22 @@
         <v>0</v>
       </c>
       <c r="L48" s="37">
-        <f t="shared" ref="L48:L56" si="3">AVERAGE(B48:K48)</f>
-        <v>0</v>
-      </c>
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="P48" s="33" t="s">
+        <v>63</v>
+      </c>
+      <c r="Q48" s="45">
+        <f>SUM(Q47:R47)</f>
+        <v>334891.28740198608</v>
+      </c>
+      <c r="R48" s="46"/>
+      <c r="S48" s="31"/>
     </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A49" s="32" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B49" s="23">
         <v>0</v>
@@ -14938,52 +17423,70 @@
         <v>0</v>
       </c>
       <c r="L49" s="37">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>7.3</v>
       </c>
+      <c r="P49" s="33" t="s">
+        <v>60</v>
+      </c>
+      <c r="Q49" s="31"/>
+      <c r="R49" s="31"/>
+      <c r="S49" s="31">
+        <f>MIN(S37:S46)</f>
+        <v>312950</v>
+      </c>
     </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A50" s="32" t="s">
+        <v>19</v>
+      </c>
+      <c r="B50" s="23">
+        <v>0</v>
+      </c>
+      <c r="C50" s="23">
+        <v>0</v>
+      </c>
+      <c r="D50" s="23">
+        <v>0</v>
+      </c>
+      <c r="E50" s="23">
+        <v>0</v>
+      </c>
+      <c r="F50" s="23">
+        <v>0</v>
+      </c>
+      <c r="G50" s="26">
+        <v>0</v>
+      </c>
+      <c r="H50" s="23">
+        <v>0</v>
+      </c>
+      <c r="I50" s="23">
+        <v>0</v>
+      </c>
+      <c r="J50" s="23">
+        <v>0</v>
+      </c>
+      <c r="K50" s="31">
+        <v>0</v>
+      </c>
+      <c r="L50" s="37">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="P50" s="33" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q50" s="31"/>
+      <c r="R50" s="31"/>
+      <c r="S50" s="31">
+        <f>MAX(S37:S46)</f>
+        <v>356523</v>
+      </c>
+    </row>
+    <row r="51" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A51" s="32" t="s">
         <v>20</v>
-      </c>
-      <c r="B50" s="23">
-        <v>0</v>
-      </c>
-      <c r="C50" s="23">
-        <v>0</v>
-      </c>
-      <c r="D50" s="23">
-        <v>0</v>
-      </c>
-      <c r="E50" s="23">
-        <v>0</v>
-      </c>
-      <c r="F50" s="23">
-        <v>0</v>
-      </c>
-      <c r="G50" s="26">
-        <v>0</v>
-      </c>
-      <c r="H50" s="23">
-        <v>0</v>
-      </c>
-      <c r="I50" s="23">
-        <v>0</v>
-      </c>
-      <c r="J50" s="23">
-        <v>0</v>
-      </c>
-      <c r="K50" s="31">
-        <v>0</v>
-      </c>
-      <c r="L50" s="37">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A51" s="32" t="s">
-        <v>21</v>
       </c>
       <c r="B51" s="23">
         <v>0</v>
@@ -15016,13 +17519,25 @@
         <v>0</v>
       </c>
       <c r="L51" s="37">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0.5</v>
       </c>
+      <c r="P51" s="33" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q51" s="42">
+        <f>Q47/Q48</f>
+        <v>0.97863278670505105</v>
+      </c>
+      <c r="R51" s="42">
+        <f>R47/Q48</f>
+        <v>2.1367213294948947E-2</v>
+      </c>
+      <c r="S51" s="31"/>
     </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A52" s="32" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B52" s="23">
         <v>0</v>
@@ -15055,13 +17570,13 @@
         <v>0</v>
       </c>
       <c r="L52" s="37">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>9.8000000000000007</v>
       </c>
     </row>
-    <row r="53" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A53" s="32" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B53" s="23">
         <v>0</v>
@@ -15094,13 +17609,13 @@
         <v>0</v>
       </c>
       <c r="L53" s="37">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>4.8</v>
       </c>
     </row>
-    <row r="54" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A54" s="32" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B54" s="23">
         <v>0</v>
@@ -15133,13 +17648,13 @@
         <v>0</v>
       </c>
       <c r="L54" s="37">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>1.1000000000000001</v>
       </c>
     </row>
-    <row r="55" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A55" s="32" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B55" s="23">
         <v>0</v>
@@ -15170,13 +17685,13 @@
         <v>0</v>
       </c>
       <c r="L55" s="37">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>1.1111111111111112</v>
       </c>
     </row>
-    <row r="56" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A56" s="32" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B56" s="23">
         <f>138+205</f>
@@ -15211,13 +17726,13 @@
         <v>0</v>
       </c>
       <c r="L56" s="37">
-        <f t="shared" si="3"/>
+        <f>AVERAGE(B56:K56)</f>
         <v>584.79999999999995</v>
       </c>
     </row>
-    <row r="57" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A57" s="32" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B57" s="23">
         <f>1689+3580</f>
@@ -15253,52 +17768,52 @@
         <v>2949.2125617969814</v>
       </c>
       <c r="L57" s="37">
-        <f>AVERAGE(B57:J57)</f>
-        <v>4744</v>
+        <f t="shared" si="2"/>
+        <v>4564.521256179698</v>
       </c>
     </row>
-    <row r="58" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A58" s="32" t="s">
+        <v>28</v>
+      </c>
+      <c r="B58" s="23">
+        <v>0</v>
+      </c>
+      <c r="C58" s="23">
+        <v>0</v>
+      </c>
+      <c r="D58" s="23">
+        <v>0</v>
+      </c>
+      <c r="E58" s="23">
+        <v>0</v>
+      </c>
+      <c r="F58" s="23">
+        <v>0</v>
+      </c>
+      <c r="G58" s="26">
+        <v>0</v>
+      </c>
+      <c r="H58" s="23">
+        <v>0</v>
+      </c>
+      <c r="I58" s="26">
+        <v>0</v>
+      </c>
+      <c r="J58" s="23">
+        <v>0</v>
+      </c>
+      <c r="K58" s="31">
+        <v>0</v>
+      </c>
+      <c r="L58" s="37">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A59" s="32" t="s">
         <v>29</v>
-      </c>
-      <c r="B58" s="23">
-        <v>0</v>
-      </c>
-      <c r="C58" s="23">
-        <v>0</v>
-      </c>
-      <c r="D58" s="23">
-        <v>0</v>
-      </c>
-      <c r="E58" s="23">
-        <v>0</v>
-      </c>
-      <c r="F58" s="23">
-        <v>0</v>
-      </c>
-      <c r="G58" s="26">
-        <v>0</v>
-      </c>
-      <c r="H58" s="23">
-        <v>0</v>
-      </c>
-      <c r="I58" s="26">
-        <v>0</v>
-      </c>
-      <c r="J58" s="23">
-        <v>0</v>
-      </c>
-      <c r="K58" s="31">
-        <v>0</v>
-      </c>
-      <c r="L58" s="37">
-        <f>AVERAGE(B58:K58)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="59" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A59" s="32" t="s">
-        <v>30</v>
       </c>
       <c r="B59" s="23">
         <v>0</v>
@@ -15331,13 +17846,13 @@
         <v>0</v>
       </c>
       <c r="L59" s="37">
-        <f>AVERAGE(B59:K59)</f>
+        <f t="shared" si="2"/>
         <v>0.6</v>
       </c>
     </row>
-    <row r="60" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A60" s="32" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B60" s="23"/>
       <c r="C60" s="23"/>
@@ -15356,13 +17871,13 @@
         <v>0</v>
       </c>
       <c r="L60" s="37">
-        <f>AVERAGE(B60:J60)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A61" s="32" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B61" s="23">
         <v>0</v>
@@ -15395,13 +17910,13 @@
         <v>0</v>
       </c>
       <c r="L61" s="37">
-        <f>AVERAGE(B61:K61)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A62" s="32" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B62" s="23"/>
       <c r="C62" s="23"/>
@@ -15424,13 +17939,13 @@
         <v>120</v>
       </c>
       <c r="L62" s="37">
-        <f>AVERAGE(B62:K62)</f>
+        <f t="shared" si="2"/>
         <v>238.4</v>
       </c>
     </row>
-    <row r="63" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A63" s="32" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B63" s="23">
         <v>161</v>
@@ -15463,13 +17978,13 @@
         <v>0</v>
       </c>
       <c r="L63" s="37">
-        <f>AVERAGE(B63:K63)</f>
+        <f t="shared" si="2"/>
         <v>111.3</v>
       </c>
     </row>
-    <row r="64" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A64" s="32" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B64" s="23">
         <v>0</v>
@@ -15502,13 +18017,13 @@
         <v>12</v>
       </c>
       <c r="L64" s="37">
-        <f>AVERAGE(B64:K64)</f>
+        <f t="shared" si="2"/>
         <v>63.2</v>
       </c>
     </row>
     <row r="65" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A65" s="33" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B65" s="17">
         <f t="shared" ref="B65:K65" si="4">SUM(B36:B64)</f>
@@ -15566,7 +18081,7 @@
     </row>
     <row r="69" spans="1:12" ht="42" x14ac:dyDescent="0.35">
       <c r="A69" s="18" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B69" s="40">
         <v>2009</v>
@@ -15601,7 +18116,7 @@
     </row>
     <row r="70" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A70" s="22" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B70" s="19"/>
       <c r="C70" s="19"/>
@@ -15626,7 +18141,7 @@
     </row>
     <row r="71" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A71" s="22" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B71" s="31">
         <v>229602</v>
@@ -15665,7 +18180,7 @@
     </row>
     <row r="72" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A72" s="22" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B72" s="31">
         <v>468841</v>
@@ -15704,7 +18219,7 @@
     </row>
     <row r="73" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A73" s="22" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B73" s="31">
         <v>198511</v>
@@ -15743,7 +18258,7 @@
     </row>
     <row r="74" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A74" s="29" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B74" s="31">
         <v>111647</v>
@@ -15782,7 +18297,7 @@
     </row>
     <row r="75" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A75" s="29" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B75" s="31">
         <v>41957</v>
@@ -15821,7 +18336,7 @@
     </row>
     <row r="76" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A76" s="29" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B76" s="31"/>
       <c r="C76" s="31"/>
@@ -15846,7 +18361,7 @@
     </row>
     <row r="77" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A77" s="29" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B77" s="31"/>
       <c r="C77" s="31"/>
@@ -15876,7 +18391,7 @@
     </row>
     <row r="78" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A78" s="22" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B78" s="31">
         <v>24382</v>
@@ -15915,7 +18430,7 @@
     </row>
     <row r="79" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A79" s="22" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B79" s="31">
         <v>25508</v>
@@ -15954,7 +18469,7 @@
     </row>
     <row r="80" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A80" s="22" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B80" s="31"/>
       <c r="C80" s="31"/>
@@ -15979,7 +18494,7 @@
     </row>
     <row r="81" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A81" s="22" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B81" s="31">
         <v>248513</v>
@@ -16018,7 +18533,7 @@
     </row>
     <row r="82" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A82" s="22" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B82" s="31"/>
       <c r="C82" s="31"/>
@@ -16045,7 +18560,7 @@
     </row>
     <row r="83" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A83" s="22" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B83" s="31"/>
       <c r="C83" s="31"/>
@@ -16072,7 +18587,7 @@
     </row>
     <row r="84" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A84" s="22" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B84" s="31">
         <v>132179</v>
@@ -16111,7 +18626,7 @@
     </row>
     <row r="85" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A85" s="22" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B85" s="31">
         <v>6670</v>
@@ -16150,7 +18665,7 @@
     </row>
     <row r="86" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A86" s="32" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B86" s="31">
         <v>419821</v>
@@ -16189,7 +18704,7 @@
     </row>
     <row r="87" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A87" s="32" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B87" s="31">
         <v>3439</v>
@@ -16228,7 +18743,7 @@
     </row>
     <row r="88" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A88" s="32" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B88" s="31">
         <v>6352</v>
@@ -16267,7 +18782,7 @@
     </row>
     <row r="89" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A89" s="32" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B89" s="31"/>
       <c r="C89" s="31"/>
@@ -16297,7 +18812,7 @@
     </row>
     <row r="90" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A90" s="32" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B90" s="31">
         <v>40845</v>
@@ -16336,7 +18851,7 @@
     </row>
     <row r="91" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A91" s="32" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B91" s="31"/>
       <c r="C91" s="31"/>
@@ -16361,7 +18876,7 @@
     </row>
     <row r="92" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A92" s="32" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B92" s="31">
         <v>49277</v>
@@ -16400,7 +18915,7 @@
     </row>
     <row r="93" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A93" s="32" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B93" s="31">
         <v>28907</v>
@@ -16439,7 +18954,7 @@
     </row>
     <row r="94" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A94" s="32" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B94" s="31">
         <v>13427</v>
@@ -16478,7 +18993,7 @@
     </row>
     <row r="95" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A95" s="32" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B95" s="31">
         <v>19481</v>
@@ -16517,7 +19032,7 @@
     </row>
     <row r="96" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A96" s="32" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B96" s="31">
         <v>24274</v>
@@ -16556,7 +19071,7 @@
     </row>
     <row r="97" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A97" s="32" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B97" s="31">
         <v>310418</v>
@@ -16595,7 +19110,7 @@
     </row>
     <row r="98" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A98" s="32" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B98" s="31">
         <v>60921</v>
@@ -16634,7 +19149,7 @@
     </row>
     <row r="99" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A99" s="32" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B99" s="31">
         <v>84545</v>
@@ -16673,7 +19188,7 @@
     </row>
     <row r="100" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A100" s="32" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B100" s="31"/>
       <c r="C100" s="31"/>
@@ -16698,7 +19213,7 @@
     </row>
     <row r="101" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A101" s="32" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B101" s="31">
         <v>51008</v>
@@ -16737,7 +19252,7 @@
     </row>
     <row r="102" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A102" s="32" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B102" s="31"/>
       <c r="C102" s="31"/>
@@ -16764,7 +19279,7 @@
     </row>
     <row r="103" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A103" s="32" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B103" s="31"/>
       <c r="C103" s="31"/>
@@ -16794,7 +19309,7 @@
     </row>
     <row r="104" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A104" s="32" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B104" s="31"/>
       <c r="C104" s="31"/>
@@ -16819,7 +19334,7 @@
     </row>
     <row r="105" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A105" s="32" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B105" s="31">
         <v>2318</v>
@@ -16858,7 +19373,7 @@
     </row>
     <row r="106" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A106" s="32" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B106" s="31">
         <v>13329</v>
@@ -16897,7 +19412,7 @@
     </row>
     <row r="107" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A107" s="32" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B107" s="31">
         <v>22683</v>
@@ -16936,45 +19451,45 @@
     </row>
     <row r="108" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A108" s="33" t="s">
-        <v>13</v>
-      </c>
-      <c r="B108" s="31">
+        <v>12</v>
+      </c>
+      <c r="B108" s="17">
         <f>SUM(B70:B107)</f>
         <v>2638855</v>
       </c>
-      <c r="C108" s="31">
+      <c r="C108" s="17">
         <f t="shared" ref="C108:J108" si="6">SUM(C70:C107)</f>
         <v>2617281</v>
       </c>
-      <c r="D108" s="31">
+      <c r="D108" s="17">
         <f t="shared" si="6"/>
         <v>2694054</v>
       </c>
-      <c r="E108" s="31">
+      <c r="E108" s="17">
         <f t="shared" si="6"/>
         <v>2522234.8359707333</v>
       </c>
-      <c r="F108" s="31">
+      <c r="F108" s="17">
         <f t="shared" si="6"/>
         <v>2603102.7412192184</v>
       </c>
-      <c r="G108" s="31">
+      <c r="G108" s="17">
         <f t="shared" si="6"/>
         <v>2768423.2720697508</v>
       </c>
-      <c r="H108" s="31">
+      <c r="H108" s="17">
         <f t="shared" si="6"/>
         <v>2665553.3519984465</v>
       </c>
-      <c r="I108" s="31">
+      <c r="I108" s="17">
         <f t="shared" si="6"/>
         <v>2452711.2888226495</v>
       </c>
-      <c r="J108" s="31">
+      <c r="J108" s="17">
         <f t="shared" si="6"/>
         <v>2516529.3348831222</v>
       </c>
-      <c r="K108" s="31">
+      <c r="K108" s="17">
         <f>SUM(K70:K107)</f>
         <v>2319263.9764246647</v>
       </c>
@@ -17011,7 +19526,22 @@
   <sortState ref="A2:L14">
     <sortCondition ref="A2"/>
   </sortState>
+  <mergeCells count="1">
+    <mergeCell ref="Q48:R48"/>
+  </mergeCells>
   <conditionalFormatting sqref="L2:L31">
+    <cfRule type="colorScale" priority="18">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L36:L64">
     <cfRule type="colorScale" priority="17">
       <colorScale>
         <cfvo type="min"/>
@@ -17023,7 +19553,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L36:L64">
+  <conditionalFormatting sqref="B37:J37">
     <cfRule type="colorScale" priority="16">
       <colorScale>
         <cfvo type="min"/>
@@ -17035,7 +19565,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B37:J37">
+  <conditionalFormatting sqref="B57:J57">
     <cfRule type="colorScale" priority="15">
       <colorScale>
         <cfvo type="min"/>
@@ -17047,7 +19577,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B57:J57">
+  <conditionalFormatting sqref="B65:K65">
     <cfRule type="colorScale" priority="14">
       <colorScale>
         <cfvo type="min"/>
@@ -17059,7 +19589,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B65:K65">
+  <conditionalFormatting sqref="B32:K32">
     <cfRule type="colorScale" priority="13">
       <colorScale>
         <cfvo type="min"/>
@@ -17071,7 +19601,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B32:K32">
+  <conditionalFormatting sqref="B8:J8">
     <cfRule type="colorScale" priority="12">
       <colorScale>
         <cfvo type="min"/>
@@ -17083,7 +19613,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B8:J8">
+  <conditionalFormatting sqref="B9:J9">
     <cfRule type="colorScale" priority="11">
       <colorScale>
         <cfvo type="min"/>
@@ -17095,7 +19625,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B9:J9">
+  <conditionalFormatting sqref="B24:J24">
     <cfRule type="colorScale" priority="10">
       <colorScale>
         <cfvo type="min"/>
@@ -17107,7 +19637,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B24:J24">
+  <conditionalFormatting sqref="B24:K24">
     <cfRule type="colorScale" priority="9">
       <colorScale>
         <cfvo type="min"/>
@@ -17119,7 +19649,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B24:K24">
+  <conditionalFormatting sqref="B37:K37">
     <cfRule type="colorScale" priority="8">
       <colorScale>
         <cfvo type="min"/>
@@ -17131,7 +19661,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B37:K37">
+  <conditionalFormatting sqref="B57:K57">
     <cfRule type="colorScale" priority="7">
       <colorScale>
         <cfvo type="min"/>
@@ -17143,7 +19673,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B57:K57">
+  <conditionalFormatting sqref="G8:K8">
     <cfRule type="colorScale" priority="6">
       <colorScale>
         <cfvo type="min"/>
@@ -17155,7 +19685,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G8:K8">
+  <conditionalFormatting sqref="B9:K9">
     <cfRule type="colorScale" priority="5">
       <colorScale>
         <cfvo type="min"/>
@@ -17167,7 +19697,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B9:K9">
+  <conditionalFormatting sqref="B108:K108">
     <cfRule type="colorScale" priority="4">
       <colorScale>
         <cfvo type="min"/>
@@ -17179,7 +19709,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B108:K108">
+  <conditionalFormatting sqref="L70:L107">
     <cfRule type="colorScale" priority="3">
       <colorScale>
         <cfvo type="min"/>
@@ -17191,8 +19721,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L70:L107">
-    <cfRule type="colorScale" priority="2">
+  <conditionalFormatting sqref="S37:S46">
+    <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -17213,8 +19743,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P23"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J10" sqref="J10"/>
+    <sheetView tabSelected="1" topLeftCell="M1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="U3" sqref="U3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -17235,19 +19765,19 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>15</v>
-      </c>
       <c r="D2" s="8" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E2" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2" s="8" t="s">
         <v>10</v>
-      </c>
-      <c r="F2" s="8" t="s">
-        <v>11</v>
       </c>
       <c r="G2" s="1" t="s">
         <v>3</v>
@@ -17474,7 +20004,7 @@
         <v>-0.84528505522019615</v>
       </c>
       <c r="J8" s="5">
-        <f t="shared" ref="J8:J10" si="2">H8/F4*5</f>
+        <f t="shared" ref="J8" si="2">H8/F4*5</f>
         <v>-0.71752132933687496</v>
       </c>
       <c r="L8" s="12"/>
@@ -17489,7 +20019,7 @@
       </c>
       <c r="B9" s="2">
         <f>'HECTAREAS PLANTADAS MSE'!H32</f>
-        <v>713580</v>
+        <v>351681</v>
       </c>
       <c r="C9" s="2">
         <f>'HECTAREAS PLANTADAS MSE'!H65</f>
@@ -17499,21 +20029,22 @@
         <v>11.98</v>
       </c>
       <c r="E9" s="11">
-        <f t="shared" si="0"/>
-        <v>8548.6884000000009</v>
+        <f>D9*B9/1000</f>
+        <v>4213.1383800000003</v>
       </c>
       <c r="F9" s="11">
         <f t="shared" si="1"/>
         <v>58.007160000000006</v>
       </c>
       <c r="G9" s="3">
-        <v>1249.2</v>
+        <v>382.13</v>
       </c>
       <c r="H9" s="3">
         <v>-0.12570000000000001</v>
       </c>
       <c r="I9" s="5">
-        <v>1</v>
+        <f t="shared" ref="I9" si="3">G9/E5*5</f>
+        <v>0.82947620998716098</v>
       </c>
       <c r="J9" s="5">
         <f>H9/F5*5</f>
@@ -17549,17 +20080,16 @@
         <v>81.378239999999991</v>
       </c>
       <c r="G10" s="3">
-        <v>1361</v>
+        <v>927.49</v>
       </c>
       <c r="H10" s="3">
-        <v>-0.12570000000000001</v>
+        <v>13.805</v>
       </c>
       <c r="I10" s="5">
         <v>1</v>
       </c>
       <c r="J10" s="5">
-        <f t="shared" si="2"/>
-        <v>-1.9896991517898269E-2</v>
+        <v>1</v>
       </c>
       <c r="L10" s="12"/>
       <c r="M10" s="14"/>
@@ -17626,8 +20156,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J33" sqref="J33"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -17688,7 +20218,7 @@
       </c>
       <c r="C5" s="5">
         <f>'cw_chemical_trend MSE'!J10</f>
-        <v>-1.9896991517898269E-2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
@@ -17724,7 +20254,7 @@
       </c>
       <c r="C8" s="5">
         <f>'cw_chemical_trend MSE'!I9</f>
-        <v>1</v>
+        <v>0.82947620998716098</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
